--- a/input/dynamic_data/season_17/forecasting_method/average/forecast_point_GW13.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/forecast_point_GW13.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>round_22</t>
+  </si>
+  <si>
+    <t>round_23</t>
   </si>
 </sst>
 </file>
@@ -129,6 +132,9 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -164,6 +170,9 @@
       <c r="K2" t="n">
         <v>4.0</v>
       </c>
+      <c r="L2" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -197,6 +206,9 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -234,6 +246,9 @@
       <c r="K4" t="n">
         <v>0.0</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -269,6 +284,9 @@
       <c r="K5" t="n">
         <v>0.0</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -304,6 +322,9 @@
       <c r="K6" t="n">
         <v>0.0</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -339,6 +360,9 @@
       <c r="K7" t="n">
         <v>0.0</v>
       </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -374,6 +398,9 @@
       <c r="K8" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L8" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -409,6 +436,9 @@
       <c r="K9" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="L9" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -444,6 +474,9 @@
       <c r="K10" t="n">
         <v>0.0</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -479,6 +512,9 @@
       <c r="K11" t="n">
         <v>0.0</v>
       </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -514,6 +550,9 @@
       <c r="K12" t="n">
         <v>0.0</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -549,6 +588,9 @@
       <c r="K13" t="n">
         <v>0.0</v>
       </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -584,6 +626,9 @@
       <c r="K14" t="n">
         <v>0.0</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -619,6 +664,9 @@
       <c r="K15" t="n">
         <v>0.0</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -654,6 +702,9 @@
       <c r="K16" t="n">
         <v>8.333333333333334</v>
       </c>
+      <c r="L16" t="n">
+        <v>8.333333333333334</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -689,6 +740,9 @@
       <c r="K17" t="n">
         <v>0.0</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -724,6 +778,9 @@
       <c r="K18" t="n">
         <v>0.0</v>
       </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -759,6 +816,9 @@
       <c r="K19" t="n">
         <v>6.333333333333333</v>
       </c>
+      <c r="L19" t="n">
+        <v>6.333333333333333</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -794,6 +854,9 @@
       <c r="K20" t="n">
         <v>0.0</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -829,6 +892,9 @@
       <c r="K21" t="n">
         <v>0.0</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -864,6 +930,9 @@
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -899,6 +968,9 @@
       <c r="K23" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L23" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -934,6 +1006,9 @@
       <c r="K24" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L24" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -969,6 +1044,9 @@
       <c r="K25" t="n">
         <v>0.0</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1004,6 +1082,9 @@
       <c r="K26" t="n">
         <v>0.0</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1039,6 +1120,9 @@
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1074,6 +1158,9 @@
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1109,6 +1196,9 @@
       <c r="K29" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="L29" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1144,6 +1234,9 @@
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1179,6 +1272,9 @@
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
+      <c r="L31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1214,6 +1310,9 @@
       <c r="K32" t="n">
         <v>3.0</v>
       </c>
+      <c r="L32" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1249,6 +1348,9 @@
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1284,6 +1386,9 @@
       <c r="K34" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L34" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1319,6 +1424,9 @@
       <c r="K35" t="n">
         <v>0.0</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1354,6 +1462,9 @@
       <c r="K36" t="n">
         <v>0.0</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1389,6 +1500,9 @@
       <c r="K37" t="n">
         <v>3.0</v>
       </c>
+      <c r="L37" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1424,6 +1538,9 @@
       <c r="K38" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="L38" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1459,6 +1576,9 @@
       <c r="K39" t="n">
         <v>0.0</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1494,6 +1614,9 @@
       <c r="K40" t="n">
         <v>0.0</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1529,6 +1652,9 @@
       <c r="K41" t="n">
         <v>0.0</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1564,6 +1690,9 @@
       <c r="K42" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L42" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1599,6 +1728,9 @@
       <c r="K43" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L43" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1634,6 +1766,9 @@
       <c r="K44" t="n">
         <v>0.0</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1669,6 +1804,9 @@
       <c r="K45" t="n">
         <v>2.0</v>
       </c>
+      <c r="L45" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1704,6 +1842,9 @@
       <c r="K46" t="n">
         <v>0.0</v>
       </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1739,6 +1880,9 @@
       <c r="K47" t="n">
         <v>0.0</v>
       </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1774,6 +1918,9 @@
       <c r="K48" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L48" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1809,6 +1956,9 @@
       <c r="K49" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L49" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1844,6 +1994,9 @@
       <c r="K50" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L50" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1879,6 +2032,9 @@
       <c r="K51" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L51" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1914,6 +2070,9 @@
       <c r="K52" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L52" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1949,6 +2108,9 @@
       <c r="K53" t="n">
         <v>0.0</v>
       </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1984,6 +2146,9 @@
       <c r="K54" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L54" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2019,6 +2184,9 @@
       <c r="K55" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L55" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2054,6 +2222,9 @@
       <c r="K56" t="n">
         <v>0.0</v>
       </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2089,6 +2260,9 @@
       <c r="K57" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L57" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2124,6 +2298,9 @@
       <c r="K58" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L58" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2159,6 +2336,9 @@
       <c r="K59" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L59" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2194,6 +2374,9 @@
       <c r="K60" t="n">
         <v>0.0</v>
       </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2229,6 +2412,9 @@
       <c r="K61" t="n">
         <v>0.0</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2264,6 +2450,9 @@
       <c r="K62" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L62" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2299,6 +2488,9 @@
       <c r="K63" t="n">
         <v>0.0</v>
       </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2334,6 +2526,9 @@
       <c r="K64" t="n">
         <v>0.0</v>
       </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2369,6 +2564,9 @@
       <c r="K65" t="n">
         <v>0.0</v>
       </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2404,6 +2602,9 @@
       <c r="K66" t="n">
         <v>2.0</v>
       </c>
+      <c r="L66" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2439,6 +2640,9 @@
       <c r="K67" t="n">
         <v>0.0</v>
       </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2474,6 +2678,9 @@
       <c r="K68" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L68" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2509,6 +2716,9 @@
       <c r="K69" t="n">
         <v>3.0</v>
       </c>
+      <c r="L69" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2544,6 +2754,9 @@
       <c r="K70" t="n">
         <v>0.0</v>
       </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2579,6 +2792,9 @@
       <c r="K71" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L71" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2614,6 +2830,9 @@
       <c r="K72" t="n">
         <v>0.0</v>
       </c>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2649,6 +2868,9 @@
       <c r="K73" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L73" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2684,6 +2906,9 @@
       <c r="K74" t="n">
         <v>0.0</v>
       </c>
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2719,6 +2944,9 @@
       <c r="K75" t="n">
         <v>7.0</v>
       </c>
+      <c r="L75" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2754,6 +2982,9 @@
       <c r="K76" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L76" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2789,6 +3020,9 @@
       <c r="K77" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L77" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2824,6 +3058,9 @@
       <c r="K78" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L78" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2859,6 +3096,9 @@
       <c r="K79" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L79" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2894,6 +3134,9 @@
       <c r="K80" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L80" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2929,6 +3172,9 @@
       <c r="K81" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L81" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2964,6 +3210,9 @@
       <c r="K82" t="n">
         <v>3.0</v>
       </c>
+      <c r="L82" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2999,6 +3248,9 @@
       <c r="K83" t="n">
         <v>3.0</v>
       </c>
+      <c r="L83" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3034,6 +3286,9 @@
       <c r="K84" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L84" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3069,6 +3324,9 @@
       <c r="K85" t="n">
         <v>0.0</v>
       </c>
+      <c r="L85" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3104,6 +3362,9 @@
       <c r="K86" t="n">
         <v>0.0</v>
       </c>
+      <c r="L86" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3139,6 +3400,9 @@
       <c r="K87" t="n">
         <v>0.0</v>
       </c>
+      <c r="L87" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3174,6 +3438,9 @@
       <c r="K88" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L88" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3209,6 +3476,9 @@
       <c r="K89" t="n">
         <v>0.0</v>
       </c>
+      <c r="L89" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3244,6 +3514,9 @@
       <c r="K90" t="n">
         <v>1.0</v>
       </c>
+      <c r="L90" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3279,6 +3552,9 @@
       <c r="K91" t="n">
         <v>5.0</v>
       </c>
+      <c r="L91" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3314,6 +3590,9 @@
       <c r="K92" t="n">
         <v>0.0</v>
       </c>
+      <c r="L92" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3349,6 +3628,9 @@
       <c r="K93" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="L93" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3384,6 +3666,9 @@
       <c r="K94" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L94" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3419,6 +3704,9 @@
       <c r="K95" t="n">
         <v>0.0</v>
       </c>
+      <c r="L95" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3454,6 +3742,9 @@
       <c r="K96" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L96" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3489,6 +3780,9 @@
       <c r="K97" t="n">
         <v>7.333333333333333</v>
       </c>
+      <c r="L97" t="n">
+        <v>7.333333333333333</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3524,6 +3818,9 @@
       <c r="K98" t="n">
         <v>0.0</v>
       </c>
+      <c r="L98" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3559,6 +3856,9 @@
       <c r="K99" t="n">
         <v>0.0</v>
       </c>
+      <c r="L99" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3594,6 +3894,9 @@
       <c r="K100" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="L100" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3629,6 +3932,9 @@
       <c r="K101" t="n">
         <v>7.666666666666667</v>
       </c>
+      <c r="L101" t="n">
+        <v>7.666666666666667</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3664,6 +3970,9 @@
       <c r="K102" t="n">
         <v>6.0</v>
       </c>
+      <c r="L102" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3699,6 +4008,9 @@
       <c r="K103" t="n">
         <v>0.0</v>
       </c>
+      <c r="L103" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3734,6 +4046,9 @@
       <c r="K104" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="L104" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3769,6 +4084,9 @@
       <c r="K105" t="n">
         <v>8.666666666666666</v>
       </c>
+      <c r="L105" t="n">
+        <v>8.666666666666666</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3804,6 +4122,9 @@
       <c r="K106" t="n">
         <v>8.666666666666666</v>
       </c>
+      <c r="L106" t="n">
+        <v>8.666666666666666</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3839,6 +4160,9 @@
       <c r="K107" t="n">
         <v>4.0</v>
       </c>
+      <c r="L107" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3874,6 +4198,9 @@
       <c r="K108" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L108" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3909,6 +4236,9 @@
       <c r="K109" t="n">
         <v>2.0</v>
       </c>
+      <c r="L109" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3944,6 +4274,9 @@
       <c r="K110" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L110" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3979,6 +4312,9 @@
       <c r="K111" t="n">
         <v>0.0</v>
       </c>
+      <c r="L111" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4014,6 +4350,9 @@
       <c r="K112" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L112" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4049,6 +4388,9 @@
       <c r="K113" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L113" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4084,6 +4426,9 @@
       <c r="K114" t="n">
         <v>0.0</v>
       </c>
+      <c r="L114" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4119,6 +4464,9 @@
       <c r="K115" t="n">
         <v>6.0</v>
       </c>
+      <c r="L115" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4154,6 +4502,9 @@
       <c r="K116" t="n">
         <v>1.0</v>
       </c>
+      <c r="L116" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4189,6 +4540,9 @@
       <c r="K117" t="n">
         <v>0.0</v>
       </c>
+      <c r="L117" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4224,6 +4578,9 @@
       <c r="K118" t="n">
         <v>1.0</v>
       </c>
+      <c r="L118" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4259,6 +4616,9 @@
       <c r="K119" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L119" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4294,6 +4654,9 @@
       <c r="K120" t="n">
         <v>0.0</v>
       </c>
+      <c r="L120" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4329,6 +4692,9 @@
       <c r="K121" t="n">
         <v>0.0</v>
       </c>
+      <c r="L121" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4364,6 +4730,9 @@
       <c r="K122" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L122" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4399,6 +4768,9 @@
       <c r="K123" t="n">
         <v>1.0</v>
       </c>
+      <c r="L123" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4434,6 +4806,9 @@
       <c r="K124" t="n">
         <v>0.0</v>
       </c>
+      <c r="L124" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4469,6 +4844,9 @@
       <c r="K125" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L125" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4504,6 +4882,9 @@
       <c r="K126" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L126" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4539,6 +4920,9 @@
       <c r="K127" t="n">
         <v>2.0</v>
       </c>
+      <c r="L127" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4574,6 +4958,9 @@
       <c r="K128" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="L128" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4609,6 +4996,9 @@
       <c r="K129" t="n">
         <v>0.0</v>
       </c>
+      <c r="L129" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4644,6 +5034,9 @@
       <c r="K130" t="n">
         <v>0.0</v>
       </c>
+      <c r="L130" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4679,6 +5072,9 @@
       <c r="K131" t="n">
         <v>0.0</v>
       </c>
+      <c r="L131" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4714,6 +5110,9 @@
       <c r="K132" t="n">
         <v>1.0</v>
       </c>
+      <c r="L132" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4749,6 +5148,9 @@
       <c r="K133" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4784,6 +5186,9 @@
       <c r="K134" t="n">
         <v>1.0</v>
       </c>
+      <c r="L134" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4819,6 +5224,9 @@
       <c r="K135" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L135" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4854,6 +5262,9 @@
       <c r="K136" t="n">
         <v>0.0</v>
       </c>
+      <c r="L136" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4889,6 +5300,9 @@
       <c r="K137" t="n">
         <v>0.0</v>
       </c>
+      <c r="L137" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4924,6 +5338,9 @@
       <c r="K138" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L138" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4959,6 +5376,9 @@
       <c r="K139" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L139" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4994,6 +5414,9 @@
       <c r="K140" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L140" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5029,6 +5452,9 @@
       <c r="K141" t="n">
         <v>0.0</v>
       </c>
+      <c r="L141" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5064,6 +5490,9 @@
       <c r="K142" t="n">
         <v>0.0</v>
       </c>
+      <c r="L142" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5099,6 +5528,9 @@
       <c r="K143" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L143" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5134,6 +5566,9 @@
       <c r="K144" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L144" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5169,6 +5604,9 @@
       <c r="K145" t="n">
         <v>4.0</v>
       </c>
+      <c r="L145" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5204,6 +5642,9 @@
       <c r="K146" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="L146" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5239,6 +5680,9 @@
       <c r="K147" t="n">
         <v>0.0</v>
       </c>
+      <c r="L147" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5274,6 +5718,9 @@
       <c r="K148" t="n">
         <v>0.0</v>
       </c>
+      <c r="L148" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5309,6 +5756,9 @@
       <c r="K149" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L149" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5344,6 +5794,9 @@
       <c r="K150" t="n">
         <v>0.0</v>
       </c>
+      <c r="L150" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5379,6 +5832,9 @@
       <c r="K151" t="n">
         <v>2.0</v>
       </c>
+      <c r="L151" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5414,6 +5870,9 @@
       <c r="K152" t="n">
         <v>0.0</v>
       </c>
+      <c r="L152" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5449,6 +5908,9 @@
       <c r="K153" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L153" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5484,6 +5946,9 @@
       <c r="K154" t="n">
         <v>0.0</v>
       </c>
+      <c r="L154" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5519,6 +5984,9 @@
       <c r="K155" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L155" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5554,6 +6022,9 @@
       <c r="K156" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L156" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5589,6 +6060,9 @@
       <c r="K157" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L157" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5624,6 +6098,9 @@
       <c r="K158" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L158" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5659,6 +6136,9 @@
       <c r="K159" t="n">
         <v>0.0</v>
       </c>
+      <c r="L159" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5694,6 +6174,9 @@
       <c r="K160" t="n">
         <v>0.0</v>
       </c>
+      <c r="L160" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5729,6 +6212,9 @@
       <c r="K161" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L161" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5764,6 +6250,9 @@
       <c r="K162" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L162" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5799,6 +6288,9 @@
       <c r="K163" t="n">
         <v>2.0</v>
       </c>
+      <c r="L163" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5834,6 +6326,9 @@
       <c r="K164" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="L164" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5869,6 +6364,9 @@
       <c r="K165" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L165" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5904,6 +6402,9 @@
       <c r="K166" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L166" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5939,6 +6440,9 @@
       <c r="K167" t="n">
         <v>0.0</v>
       </c>
+      <c r="L167" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5974,6 +6478,9 @@
       <c r="K168" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L168" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6009,6 +6516,9 @@
       <c r="K169" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L169" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6044,6 +6554,9 @@
       <c r="K170" t="n">
         <v>0.0</v>
       </c>
+      <c r="L170" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6079,6 +6592,9 @@
       <c r="K171" t="n">
         <v>0.0</v>
       </c>
+      <c r="L171" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6114,6 +6630,9 @@
       <c r="K172" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L172" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6149,6 +6668,9 @@
       <c r="K173" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L173" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6184,6 +6706,9 @@
       <c r="K174" t="n">
         <v>0.0</v>
       </c>
+      <c r="L174" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6219,6 +6744,9 @@
       <c r="K175" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L175" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6254,6 +6782,9 @@
       <c r="K176" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L176" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6289,6 +6820,9 @@
       <c r="K177" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L177" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6324,6 +6858,9 @@
       <c r="K178" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L178" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6359,6 +6896,9 @@
       <c r="K179" t="n">
         <v>0.0</v>
       </c>
+      <c r="L179" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6394,6 +6934,9 @@
       <c r="K180" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L180" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6429,6 +6972,9 @@
       <c r="K181" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L181" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6464,6 +7010,9 @@
       <c r="K182" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L182" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6499,6 +7048,9 @@
       <c r="K183" t="n">
         <v>0.0</v>
       </c>
+      <c r="L183" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6534,6 +7086,9 @@
       <c r="K184" t="n">
         <v>0.0</v>
       </c>
+      <c r="L184" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6569,6 +7124,9 @@
       <c r="K185" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="L185" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6604,6 +7162,9 @@
       <c r="K186" t="n">
         <v>0.0</v>
       </c>
+      <c r="L186" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6639,6 +7200,9 @@
       <c r="K187" t="n">
         <v>3.0</v>
       </c>
+      <c r="L187" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6674,6 +7238,9 @@
       <c r="K188" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L188" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6709,6 +7276,9 @@
       <c r="K189" t="n">
         <v>0.0</v>
       </c>
+      <c r="L189" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6744,6 +7314,9 @@
       <c r="K190" t="n">
         <v>0.0</v>
       </c>
+      <c r="L190" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6779,6 +7352,9 @@
       <c r="K191" t="n">
         <v>0.0</v>
       </c>
+      <c r="L191" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6814,6 +7390,9 @@
       <c r="K192" t="n">
         <v>0.0</v>
       </c>
+      <c r="L192" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6849,6 +7428,9 @@
       <c r="K193" t="n">
         <v>1.0</v>
       </c>
+      <c r="L193" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6884,6 +7466,9 @@
       <c r="K194" t="n">
         <v>1.0</v>
       </c>
+      <c r="L194" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6919,6 +7504,9 @@
       <c r="K195" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L195" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6954,6 +7542,9 @@
       <c r="K196" t="n">
         <v>0.0</v>
       </c>
+      <c r="L196" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6989,6 +7580,9 @@
       <c r="K197" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L197" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7024,6 +7618,9 @@
       <c r="K198" t="n">
         <v>0.0</v>
       </c>
+      <c r="L198" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -7059,6 +7656,9 @@
       <c r="K199" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L199" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -7094,6 +7694,9 @@
       <c r="K200" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L200" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7129,6 +7732,9 @@
       <c r="K201" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L201" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7164,6 +7770,9 @@
       <c r="K202" t="n">
         <v>0.0</v>
       </c>
+      <c r="L202" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7199,6 +7808,9 @@
       <c r="K203" t="n">
         <v>0.0</v>
       </c>
+      <c r="L203" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7234,6 +7846,9 @@
       <c r="K204" t="n">
         <v>0.0</v>
       </c>
+      <c r="L204" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7269,6 +7884,9 @@
       <c r="K205" t="n">
         <v>0.0</v>
       </c>
+      <c r="L205" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7304,6 +7922,9 @@
       <c r="K206" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L206" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7339,6 +7960,9 @@
       <c r="K207" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L207" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7374,6 +7998,9 @@
       <c r="K208" t="n">
         <v>0.0</v>
       </c>
+      <c r="L208" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7409,6 +8036,9 @@
       <c r="K209" t="n">
         <v>0.0</v>
       </c>
+      <c r="L209" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7444,6 +8074,9 @@
       <c r="K210" t="n">
         <v>0.0</v>
       </c>
+      <c r="L210" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7479,6 +8112,9 @@
       <c r="K211" t="n">
         <v>0.0</v>
       </c>
+      <c r="L211" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7514,6 +8150,9 @@
       <c r="K212" t="n">
         <v>0.0</v>
       </c>
+      <c r="L212" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7549,6 +8188,9 @@
       <c r="K213" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L213" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7584,6 +8226,9 @@
       <c r="K214" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L214" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7619,6 +8264,9 @@
       <c r="K215" t="n">
         <v>0.0</v>
       </c>
+      <c r="L215" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7654,6 +8302,9 @@
       <c r="K216" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L216" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7689,6 +8340,9 @@
       <c r="K217" t="n">
         <v>0.0</v>
       </c>
+      <c r="L217" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7724,6 +8378,9 @@
       <c r="K218" t="n">
         <v>3.0</v>
       </c>
+      <c r="L218" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7759,6 +8416,9 @@
       <c r="K219" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="L219" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7794,6 +8454,9 @@
       <c r="K220" t="n">
         <v>0.0</v>
       </c>
+      <c r="L220" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7829,6 +8492,9 @@
       <c r="K221" t="n">
         <v>1.0</v>
       </c>
+      <c r="L221" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7864,6 +8530,9 @@
       <c r="K222" t="n">
         <v>0.0</v>
       </c>
+      <c r="L222" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7899,6 +8568,9 @@
       <c r="K223" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L223" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7934,6 +8606,9 @@
       <c r="K224" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L224" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7969,6 +8644,9 @@
       <c r="K225" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L225" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -8004,6 +8682,9 @@
       <c r="K226" t="n">
         <v>0.0</v>
       </c>
+      <c r="L226" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -8039,6 +8720,9 @@
       <c r="K227" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L227" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -8074,6 +8758,9 @@
       <c r="K228" t="n">
         <v>0.0</v>
       </c>
+      <c r="L228" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -8109,6 +8796,9 @@
       <c r="K229" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L229" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -8144,6 +8834,9 @@
       <c r="K230" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L230" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -8179,6 +8872,9 @@
       <c r="K231" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L231" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -8214,6 +8910,9 @@
       <c r="K232" t="n">
         <v>0.0</v>
       </c>
+      <c r="L232" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -8249,6 +8948,9 @@
       <c r="K233" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L233" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8284,6 +8986,9 @@
       <c r="K234" t="n">
         <v>0.0</v>
       </c>
+      <c r="L234" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8319,6 +9024,9 @@
       <c r="K235" t="n">
         <v>2.0</v>
       </c>
+      <c r="L235" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8354,6 +9062,9 @@
       <c r="K236" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L236" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -8389,6 +9100,9 @@
       <c r="K237" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L237" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -8424,6 +9138,9 @@
       <c r="K238" t="n">
         <v>4.0</v>
       </c>
+      <c r="L238" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -8459,6 +9176,9 @@
       <c r="K239" t="n">
         <v>0.0</v>
       </c>
+      <c r="L239" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8494,6 +9214,9 @@
       <c r="K240" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L240" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8529,6 +9252,9 @@
       <c r="K241" t="n">
         <v>0.0</v>
       </c>
+      <c r="L241" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8564,6 +9290,9 @@
       <c r="K242" t="n">
         <v>2.0</v>
       </c>
+      <c r="L242" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8599,6 +9328,9 @@
       <c r="K243" t="n">
         <v>0.0</v>
       </c>
+      <c r="L243" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8634,6 +9366,9 @@
       <c r="K244" t="n">
         <v>5.0</v>
       </c>
+      <c r="L244" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8669,6 +9404,9 @@
       <c r="K245" t="n">
         <v>0.0</v>
       </c>
+      <c r="L245" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8704,6 +9442,9 @@
       <c r="K246" t="n">
         <v>3.0</v>
       </c>
+      <c r="L246" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -8739,6 +9480,9 @@
       <c r="K247" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L247" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -8774,6 +9518,9 @@
       <c r="K248" t="n">
         <v>0.0</v>
       </c>
+      <c r="L248" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -8809,6 +9556,9 @@
       <c r="K249" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L249" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8844,6 +9594,9 @@
       <c r="K250" t="n">
         <v>0.0</v>
       </c>
+      <c r="L250" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8879,6 +9632,9 @@
       <c r="K251" t="n">
         <v>0.0</v>
       </c>
+      <c r="L251" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8914,6 +9670,9 @@
       <c r="K252" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L252" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8949,6 +9708,9 @@
       <c r="K253" t="n">
         <v>0.0</v>
       </c>
+      <c r="L253" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8984,6 +9746,9 @@
       <c r="K254" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L254" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -9019,6 +9784,9 @@
       <c r="K255" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L255" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -9054,6 +9822,9 @@
       <c r="K256" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L256" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -9089,6 +9860,9 @@
       <c r="K257" t="n">
         <v>1.0</v>
       </c>
+      <c r="L257" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -9124,6 +9898,9 @@
       <c r="K258" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L258" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -9159,6 +9936,9 @@
       <c r="K259" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L259" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -9194,6 +9974,9 @@
       <c r="K260" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L260" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -9229,6 +10012,9 @@
       <c r="K261" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L261" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -9264,6 +10050,9 @@
       <c r="K262" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L262" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -9299,6 +10088,9 @@
       <c r="K263" t="n">
         <v>0.0</v>
       </c>
+      <c r="L263" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -9334,6 +10126,9 @@
       <c r="K264" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L264" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9369,6 +10164,9 @@
       <c r="K265" t="n">
         <v>0.0</v>
       </c>
+      <c r="L265" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9404,6 +10202,9 @@
       <c r="K266" t="n">
         <v>0.0</v>
       </c>
+      <c r="L266" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9439,6 +10240,9 @@
       <c r="K267" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L267" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9474,6 +10278,9 @@
       <c r="K268" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L268" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -9509,6 +10316,9 @@
       <c r="K269" t="n">
         <v>0.0</v>
       </c>
+      <c r="L269" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9544,6 +10354,9 @@
       <c r="K270" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L270" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9579,6 +10392,9 @@
       <c r="K271" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L271" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9614,6 +10430,9 @@
       <c r="K272" t="n">
         <v>0.0</v>
       </c>
+      <c r="L272" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9649,6 +10468,9 @@
       <c r="K273" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L273" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -9684,6 +10506,9 @@
       <c r="K274" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L274" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9719,6 +10544,9 @@
       <c r="K275" t="n">
         <v>0.0</v>
       </c>
+      <c r="L275" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9754,6 +10582,9 @@
       <c r="K276" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L276" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -9789,6 +10620,9 @@
       <c r="K277" t="n">
         <v>0.0</v>
       </c>
+      <c r="L277" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -9824,6 +10658,9 @@
       <c r="K278" t="n">
         <v>1.0</v>
       </c>
+      <c r="L278" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -9859,6 +10696,9 @@
       <c r="K279" t="n">
         <v>0.0</v>
       </c>
+      <c r="L279" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -9894,6 +10734,9 @@
       <c r="K280" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L280" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -9929,6 +10772,9 @@
       <c r="K281" t="n">
         <v>0.0</v>
       </c>
+      <c r="L281" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -9964,6 +10810,9 @@
       <c r="K282" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L282" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -9999,6 +10848,9 @@
       <c r="K283" t="n">
         <v>6.0</v>
       </c>
+      <c r="L283" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10034,6 +10886,9 @@
       <c r="K284" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L284" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -10069,6 +10924,9 @@
       <c r="K285" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L285" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -10104,6 +10962,9 @@
       <c r="K286" t="n">
         <v>1.0</v>
       </c>
+      <c r="L286" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -10139,6 +11000,9 @@
       <c r="K287" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="L287" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -10174,6 +11038,9 @@
       <c r="K288" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L288" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -10209,6 +11076,9 @@
       <c r="K289" t="n">
         <v>0.0</v>
       </c>
+      <c r="L289" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -10244,6 +11114,9 @@
       <c r="K290" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L290" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -10279,6 +11152,9 @@
       <c r="K291" t="n">
         <v>1.0</v>
       </c>
+      <c r="L291" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -10314,6 +11190,9 @@
       <c r="K292" t="n">
         <v>0.0</v>
       </c>
+      <c r="L292" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -10349,6 +11228,9 @@
       <c r="K293" t="n">
         <v>0.0</v>
       </c>
+      <c r="L293" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -10384,6 +11266,9 @@
       <c r="K294" t="n">
         <v>0.0</v>
       </c>
+      <c r="L294" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -10419,6 +11304,9 @@
       <c r="K295" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L295" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -10454,6 +11342,9 @@
       <c r="K296" t="n">
         <v>0.0</v>
       </c>
+      <c r="L296" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -10489,6 +11380,9 @@
       <c r="K297" t="n">
         <v>0.0</v>
       </c>
+      <c r="L297" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -10524,6 +11418,9 @@
       <c r="K298" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L298" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -10559,6 +11456,9 @@
       <c r="K299" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L299" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -10594,6 +11494,9 @@
       <c r="K300" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L300" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -10629,6 +11532,9 @@
       <c r="K301" t="n">
         <v>0.0</v>
       </c>
+      <c r="L301" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -10664,6 +11570,9 @@
       <c r="K302" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L302" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -10699,6 +11608,9 @@
       <c r="K303" t="n">
         <v>0.0</v>
       </c>
+      <c r="L303" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -10734,6 +11646,9 @@
       <c r="K304" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L304" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -10769,6 +11684,9 @@
       <c r="K305" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L305" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -10804,6 +11722,9 @@
       <c r="K306" t="n">
         <v>1.0</v>
       </c>
+      <c r="L306" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -10839,6 +11760,9 @@
       <c r="K307" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L307" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -10874,6 +11798,9 @@
       <c r="K308" t="n">
         <v>2.0</v>
       </c>
+      <c r="L308" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -10909,6 +11836,9 @@
       <c r="K309" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L309" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -10944,6 +11874,9 @@
       <c r="K310" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L310" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -10979,6 +11912,9 @@
       <c r="K311" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L311" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -11014,6 +11950,9 @@
       <c r="K312" t="n">
         <v>0.0</v>
       </c>
+      <c r="L312" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -11049,6 +11988,9 @@
       <c r="K313" t="n">
         <v>4.0</v>
       </c>
+      <c r="L313" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -11084,6 +12026,9 @@
       <c r="K314" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="L314" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -11119,6 +12064,9 @@
       <c r="K315" t="n">
         <v>3.0</v>
       </c>
+      <c r="L315" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -11154,6 +12102,9 @@
       <c r="K316" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L316" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -11189,6 +12140,9 @@
       <c r="K317" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="L317" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -11224,6 +12178,9 @@
       <c r="K318" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L318" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -11259,6 +12216,9 @@
       <c r="K319" t="n">
         <v>0.0</v>
       </c>
+      <c r="L319" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -11294,6 +12254,9 @@
       <c r="K320" t="n">
         <v>0.0</v>
       </c>
+      <c r="L320" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -11329,6 +12292,9 @@
       <c r="K321" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L321" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -11364,6 +12330,9 @@
       <c r="K322" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L322" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -11399,6 +12368,9 @@
       <c r="K323" t="n">
         <v>0.0</v>
       </c>
+      <c r="L323" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -11434,6 +12406,9 @@
       <c r="K324" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L324" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -11469,6 +12444,9 @@
       <c r="K325" t="n">
         <v>0.0</v>
       </c>
+      <c r="L325" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -11504,6 +12482,9 @@
       <c r="K326" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L326" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -11539,6 +12520,9 @@
       <c r="K327" t="n">
         <v>0.0</v>
       </c>
+      <c r="L327" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -11574,6 +12558,9 @@
       <c r="K328" t="n">
         <v>0.0</v>
       </c>
+      <c r="L328" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -11609,6 +12596,9 @@
       <c r="K329" t="n">
         <v>1.0</v>
       </c>
+      <c r="L329" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -11644,6 +12634,9 @@
       <c r="K330" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L330" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -11679,6 +12672,9 @@
       <c r="K331" t="n">
         <v>10.666666666666666</v>
       </c>
+      <c r="L331" t="n">
+        <v>10.666666666666666</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -11714,6 +12710,9 @@
       <c r="K332" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L332" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -11749,6 +12748,9 @@
       <c r="K333" t="n">
         <v>2.0</v>
       </c>
+      <c r="L333" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -11784,6 +12786,9 @@
       <c r="K334" t="n">
         <v>0.0</v>
       </c>
+      <c r="L334" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -11819,6 +12824,9 @@
       <c r="K335" t="n">
         <v>0.0</v>
       </c>
+      <c r="L335" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -11854,6 +12862,9 @@
       <c r="K336" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L336" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -11889,6 +12900,9 @@
       <c r="K337" t="n">
         <v>0.0</v>
       </c>
+      <c r="L337" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -11924,6 +12938,9 @@
       <c r="K338" t="n">
         <v>1.0</v>
       </c>
+      <c r="L338" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -11959,6 +12976,9 @@
       <c r="K339" t="n">
         <v>2.0</v>
       </c>
+      <c r="L339" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -11994,6 +13014,9 @@
       <c r="K340" t="n">
         <v>0.0</v>
       </c>
+      <c r="L340" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -12029,6 +13052,9 @@
       <c r="K341" t="n">
         <v>0.0</v>
       </c>
+      <c r="L341" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -12064,6 +13090,9 @@
       <c r="K342" t="n">
         <v>4.0</v>
       </c>
+      <c r="L342" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -12099,6 +13128,9 @@
       <c r="K343" t="n">
         <v>0.0</v>
       </c>
+      <c r="L343" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -12134,6 +13166,9 @@
       <c r="K344" t="n">
         <v>0.0</v>
       </c>
+      <c r="L344" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -12169,6 +13204,9 @@
       <c r="K345" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L345" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -12204,6 +13242,9 @@
       <c r="K346" t="n">
         <v>4.0</v>
       </c>
+      <c r="L346" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -12239,6 +13280,9 @@
       <c r="K347" t="n">
         <v>0.0</v>
       </c>
+      <c r="L347" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -12274,6 +13318,9 @@
       <c r="K348" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L348" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -12309,6 +13356,9 @@
       <c r="K349" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L349" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -12344,6 +13394,9 @@
       <c r="K350" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L350" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -12379,6 +13432,9 @@
       <c r="K351" t="n">
         <v>3.0</v>
       </c>
+      <c r="L351" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -12414,6 +13470,9 @@
       <c r="K352" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L352" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -12449,6 +13508,9 @@
       <c r="K353" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="L353" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -12484,6 +13546,9 @@
       <c r="K354" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L354" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -12519,6 +13584,9 @@
       <c r="K355" t="n">
         <v>0.0</v>
       </c>
+      <c r="L355" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -12554,6 +13622,9 @@
       <c r="K356" t="n">
         <v>0.0</v>
       </c>
+      <c r="L356" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -12589,6 +13660,9 @@
       <c r="K357" t="n">
         <v>1.0</v>
       </c>
+      <c r="L357" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -12624,6 +13698,9 @@
       <c r="K358" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L358" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -12659,6 +13736,9 @@
       <c r="K359" t="n">
         <v>0.0</v>
       </c>
+      <c r="L359" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -12694,6 +13774,9 @@
       <c r="K360" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L360" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -12729,6 +13812,9 @@
       <c r="K361" t="n">
         <v>0.0</v>
       </c>
+      <c r="L361" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -12764,6 +13850,9 @@
       <c r="K362" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L362" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -12799,6 +13888,9 @@
       <c r="K363" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L363" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -12834,6 +13926,9 @@
       <c r="K364" t="n">
         <v>3.6666666666666665</v>
       </c>
+      <c r="L364" t="n">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -12869,6 +13964,9 @@
       <c r="K365" t="n">
         <v>0.0</v>
       </c>
+      <c r="L365" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -12904,6 +14002,9 @@
       <c r="K366" t="n">
         <v>0.0</v>
       </c>
+      <c r="L366" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -12939,6 +14040,9 @@
       <c r="K367" t="n">
         <v>0.0</v>
       </c>
+      <c r="L367" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -12974,6 +14078,9 @@
       <c r="K368" t="n">
         <v>0.0</v>
       </c>
+      <c r="L368" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -13009,6 +14116,9 @@
       <c r="K369" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L369" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -13044,6 +14154,9 @@
       <c r="K370" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L370" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -13079,6 +14192,9 @@
       <c r="K371" t="n">
         <v>2.0</v>
       </c>
+      <c r="L371" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -13114,6 +14230,9 @@
       <c r="K372" t="n">
         <v>0.0</v>
       </c>
+      <c r="L372" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -13149,6 +14268,9 @@
       <c r="K373" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L373" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -13184,6 +14306,9 @@
       <c r="K374" t="n">
         <v>0.0</v>
       </c>
+      <c r="L374" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -13219,6 +14344,9 @@
       <c r="K375" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L375" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -13254,6 +14382,9 @@
       <c r="K376" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L376" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -13289,6 +14420,9 @@
       <c r="K377" t="n">
         <v>0.0</v>
       </c>
+      <c r="L377" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -13324,6 +14458,9 @@
       <c r="K378" t="n">
         <v>3.6666666666666665</v>
       </c>
+      <c r="L378" t="n">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -13359,6 +14496,9 @@
       <c r="K379" t="n">
         <v>0.0</v>
       </c>
+      <c r="L379" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -13394,6 +14534,9 @@
       <c r="K380" t="n">
         <v>1.0</v>
       </c>
+      <c r="L380" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -13429,6 +14572,9 @@
       <c r="K381" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L381" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -13464,6 +14610,9 @@
       <c r="K382" t="n">
         <v>0.0</v>
       </c>
+      <c r="L382" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -13499,6 +14648,9 @@
       <c r="K383" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L383" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -13534,6 +14686,9 @@
       <c r="K384" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L384" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -13569,6 +14724,9 @@
       <c r="K385" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L385" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -13604,6 +14762,9 @@
       <c r="K386" t="n">
         <v>0.0</v>
       </c>
+      <c r="L386" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -13639,6 +14800,9 @@
       <c r="K387" t="n">
         <v>5.0</v>
       </c>
+      <c r="L387" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -13674,6 +14838,9 @@
       <c r="K388" t="n">
         <v>0.0</v>
       </c>
+      <c r="L388" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -13709,6 +14876,9 @@
       <c r="K389" t="n">
         <v>0.0</v>
       </c>
+      <c r="L389" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -13744,6 +14914,9 @@
       <c r="K390" t="n">
         <v>3.6666666666666665</v>
       </c>
+      <c r="L390" t="n">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -13779,6 +14952,9 @@
       <c r="K391" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L391" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -13814,6 +14990,9 @@
       <c r="K392" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L392" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -13849,6 +15028,9 @@
       <c r="K393" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L393" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -13884,6 +15066,9 @@
       <c r="K394" t="n">
         <v>3.0</v>
       </c>
+      <c r="L394" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -13919,6 +15104,9 @@
       <c r="K395" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L395" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -13954,6 +15142,9 @@
       <c r="K396" t="n">
         <v>0.0</v>
       </c>
+      <c r="L396" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -13989,6 +15180,9 @@
       <c r="K397" t="n">
         <v>2.0</v>
       </c>
+      <c r="L397" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -14024,6 +15218,9 @@
       <c r="K398" t="n">
         <v>0.0</v>
       </c>
+      <c r="L398" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -14059,6 +15256,9 @@
       <c r="K399" t="n">
         <v>0.0</v>
       </c>
+      <c r="L399" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -14094,6 +15294,9 @@
       <c r="K400" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L400" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -14129,6 +15332,9 @@
       <c r="K401" t="n">
         <v>11.666666666666666</v>
       </c>
+      <c r="L401" t="n">
+        <v>11.666666666666666</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -14164,6 +15370,9 @@
       <c r="K402" t="n">
         <v>0.0</v>
       </c>
+      <c r="L402" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -14199,6 +15408,9 @@
       <c r="K403" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="L403" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -14234,6 +15446,9 @@
       <c r="K404" t="n">
         <v>0.0</v>
       </c>
+      <c r="L404" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -14269,6 +15484,9 @@
       <c r="K405" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L405" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -14304,6 +15522,9 @@
       <c r="K406" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L406" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -14339,6 +15560,9 @@
       <c r="K407" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="L407" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -14374,6 +15598,9 @@
       <c r="K408" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L408" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -14409,6 +15636,9 @@
       <c r="K409" t="n">
         <v>0.0</v>
       </c>
+      <c r="L409" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -14444,6 +15674,9 @@
       <c r="K410" t="n">
         <v>7.0</v>
       </c>
+      <c r="L410" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -14479,6 +15712,9 @@
       <c r="K411" t="n">
         <v>0.0</v>
       </c>
+      <c r="L411" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -14514,6 +15750,9 @@
       <c r="K412" t="n">
         <v>0.0</v>
       </c>
+      <c r="L412" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -14549,6 +15788,9 @@
       <c r="K413" t="n">
         <v>1.0</v>
       </c>
+      <c r="L413" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -14584,6 +15826,9 @@
       <c r="K414" t="n">
         <v>0.0</v>
       </c>
+      <c r="L414" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -14619,6 +15864,9 @@
       <c r="K415" t="n">
         <v>7.0</v>
       </c>
+      <c r="L415" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -14654,6 +15902,9 @@
       <c r="K416" t="n">
         <v>5.0</v>
       </c>
+      <c r="L416" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -14689,6 +15940,9 @@
       <c r="K417" t="n">
         <v>0.0</v>
       </c>
+      <c r="L417" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -14724,6 +15978,9 @@
       <c r="K418" t="n">
         <v>0.0</v>
       </c>
+      <c r="L418" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -14759,6 +16016,9 @@
       <c r="K419" t="n">
         <v>0.0</v>
       </c>
+      <c r="L419" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -14794,6 +16054,9 @@
       <c r="K420" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L420" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -14829,6 +16092,9 @@
       <c r="K421" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L421" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -14864,6 +16130,9 @@
       <c r="K422" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L422" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -14899,6 +16168,9 @@
       <c r="K423" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L423" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -14934,6 +16206,9 @@
       <c r="K424" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L424" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -14969,6 +16244,9 @@
       <c r="K425" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L425" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -15004,6 +16282,9 @@
       <c r="K426" t="n">
         <v>0.0</v>
       </c>
+      <c r="L426" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -15039,6 +16320,9 @@
       <c r="K427" t="n">
         <v>0.0</v>
       </c>
+      <c r="L427" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -15074,6 +16358,9 @@
       <c r="K428" t="n">
         <v>4.0</v>
       </c>
+      <c r="L428" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -15109,6 +16396,9 @@
       <c r="K429" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L429" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -15144,6 +16434,9 @@
       <c r="K430" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L430" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -15179,6 +16472,9 @@
       <c r="K431" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L431" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -15214,6 +16510,9 @@
       <c r="K432" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L432" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -15249,6 +16548,9 @@
       <c r="K433" t="n">
         <v>0.0</v>
       </c>
+      <c r="L433" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -15284,6 +16586,9 @@
       <c r="K434" t="n">
         <v>0.0</v>
       </c>
+      <c r="L434" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -15319,6 +16624,9 @@
       <c r="K435" t="n">
         <v>1.0</v>
       </c>
+      <c r="L435" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -15354,6 +16662,9 @@
       <c r="K436" t="n">
         <v>0.0</v>
       </c>
+      <c r="L436" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -15389,6 +16700,9 @@
       <c r="K437" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L437" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -15424,6 +16738,9 @@
       <c r="K438" t="n">
         <v>0.0</v>
       </c>
+      <c r="L438" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -15459,6 +16776,9 @@
       <c r="K439" t="n">
         <v>0.0</v>
       </c>
+      <c r="L439" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -15494,6 +16814,9 @@
       <c r="K440" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L440" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -15529,6 +16852,9 @@
       <c r="K441" t="n">
         <v>2.0</v>
       </c>
+      <c r="L441" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -15564,6 +16890,9 @@
       <c r="K442" t="n">
         <v>0.0</v>
       </c>
+      <c r="L442" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -15599,6 +16928,9 @@
       <c r="K443" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L443" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -15634,6 +16966,9 @@
       <c r="K444" t="n">
         <v>2.0</v>
       </c>
+      <c r="L444" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -15669,6 +17004,9 @@
       <c r="K445" t="n">
         <v>0.0</v>
       </c>
+      <c r="L445" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -15704,6 +17042,9 @@
       <c r="K446" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L446" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -15739,6 +17080,9 @@
       <c r="K447" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L447" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -15774,6 +17118,9 @@
       <c r="K448" t="n">
         <v>0.0</v>
       </c>
+      <c r="L448" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -15809,6 +17156,9 @@
       <c r="K449" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L449" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -15844,6 +17194,9 @@
       <c r="K450" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L450" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -15879,6 +17232,9 @@
       <c r="K451" t="n">
         <v>0.0</v>
       </c>
+      <c r="L451" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -15914,6 +17270,9 @@
       <c r="K452" t="n">
         <v>2.0</v>
       </c>
+      <c r="L452" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -15949,6 +17308,9 @@
       <c r="K453" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L453" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -15984,6 +17346,9 @@
       <c r="K454" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L454" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -16019,6 +17384,9 @@
       <c r="K455" t="n">
         <v>0.0</v>
       </c>
+      <c r="L455" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -16054,6 +17422,9 @@
       <c r="K456" t="n">
         <v>2.0</v>
       </c>
+      <c r="L456" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -16089,6 +17460,9 @@
       <c r="K457" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L457" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -16124,6 +17498,9 @@
       <c r="K458" t="n">
         <v>0.0</v>
       </c>
+      <c r="L458" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -16159,6 +17536,9 @@
       <c r="K459" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="L459" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -16194,6 +17574,9 @@
       <c r="K460" t="n">
         <v>5.0</v>
       </c>
+      <c r="L460" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -16229,6 +17612,9 @@
       <c r="K461" t="n">
         <v>0.0</v>
       </c>
+      <c r="L461" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -16264,6 +17650,9 @@
       <c r="K462" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L462" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -16299,6 +17688,9 @@
       <c r="K463" t="n">
         <v>0.0</v>
       </c>
+      <c r="L463" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -16334,6 +17726,9 @@
       <c r="K464" t="n">
         <v>7.666666666666667</v>
       </c>
+      <c r="L464" t="n">
+        <v>7.666666666666667</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -16369,6 +17764,9 @@
       <c r="K465" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L465" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -16404,6 +17802,9 @@
       <c r="K466" t="n">
         <v>0.0</v>
       </c>
+      <c r="L466" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -16439,6 +17840,9 @@
       <c r="K467" t="n">
         <v>4.0</v>
       </c>
+      <c r="L467" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -16474,6 +17878,9 @@
       <c r="K468" t="n">
         <v>0.0</v>
       </c>
+      <c r="L468" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -16509,6 +17916,9 @@
       <c r="K469" t="n">
         <v>0.0</v>
       </c>
+      <c r="L469" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -16544,6 +17954,9 @@
       <c r="K470" t="n">
         <v>1.0</v>
       </c>
+      <c r="L470" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -16579,6 +17992,9 @@
       <c r="K471" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L471" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -16614,6 +18030,9 @@
       <c r="K472" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L472" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -16649,6 +18068,9 @@
       <c r="K473" t="n">
         <v>2.0</v>
       </c>
+      <c r="L473" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -16684,6 +18106,9 @@
       <c r="K474" t="n">
         <v>0.0</v>
       </c>
+      <c r="L474" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -16719,6 +18144,9 @@
       <c r="K475" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L475" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -16754,6 +18182,9 @@
       <c r="K476" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L476" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -16789,6 +18220,9 @@
       <c r="K477" t="n">
         <v>0.0</v>
       </c>
+      <c r="L477" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -16824,6 +18258,9 @@
       <c r="K478" t="n">
         <v>0.0</v>
       </c>
+      <c r="L478" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -16859,6 +18296,9 @@
       <c r="K479" t="n">
         <v>1.0</v>
       </c>
+      <c r="L479" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -16894,6 +18334,9 @@
       <c r="K480" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L480" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -16929,6 +18372,9 @@
       <c r="K481" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L481" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -16964,6 +18410,9 @@
       <c r="K482" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L482" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -16999,6 +18448,9 @@
       <c r="K483" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L483" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -17034,6 +18486,9 @@
       <c r="K484" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L484" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -17069,6 +18524,9 @@
       <c r="K485" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L485" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -17104,6 +18562,9 @@
       <c r="K486" t="n">
         <v>0.0</v>
       </c>
+      <c r="L486" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -17139,6 +18600,9 @@
       <c r="K487" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L487" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -17174,6 +18638,9 @@
       <c r="K488" t="n">
         <v>0.0</v>
       </c>
+      <c r="L488" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -17209,6 +18676,9 @@
       <c r="K489" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L489" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -17244,6 +18714,9 @@
       <c r="K490" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L490" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -17279,6 +18752,9 @@
       <c r="K491" t="n">
         <v>0.0</v>
       </c>
+      <c r="L491" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -17314,6 +18790,9 @@
       <c r="K492" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L492" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -17349,6 +18828,9 @@
       <c r="K493" t="n">
         <v>0.0</v>
       </c>
+      <c r="L493" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -17384,6 +18866,9 @@
       <c r="K494" t="n">
         <v>0.0</v>
       </c>
+      <c r="L494" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -17419,6 +18904,9 @@
       <c r="K495" t="n">
         <v>0.0</v>
       </c>
+      <c r="L495" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -17454,6 +18942,9 @@
       <c r="K496" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -17489,6 +18980,9 @@
       <c r="K497" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L497" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -17524,6 +19018,9 @@
       <c r="K498" t="n">
         <v>0.0</v>
       </c>
+      <c r="L498" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -17559,6 +19056,9 @@
       <c r="K499" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L499" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -17594,6 +19094,9 @@
       <c r="K500" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L500" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -17629,6 +19132,9 @@
       <c r="K501" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L501" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -17664,6 +19170,9 @@
       <c r="K502" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="L502" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -17699,6 +19208,9 @@
       <c r="K503" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L503" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -17734,6 +19246,9 @@
       <c r="K504" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L504" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -17769,6 +19284,9 @@
       <c r="K505" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -17804,6 +19322,9 @@
       <c r="K506" t="n">
         <v>5.333333333333333</v>
       </c>
+      <c r="L506" t="n">
+        <v>5.333333333333333</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -17839,6 +19360,9 @@
       <c r="K507" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L507" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -17874,6 +19398,9 @@
       <c r="K508" t="n">
         <v>0.0</v>
       </c>
+      <c r="L508" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -17909,6 +19436,9 @@
       <c r="K509" t="n">
         <v>0.0</v>
       </c>
+      <c r="L509" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -17944,6 +19474,9 @@
       <c r="K510" t="n">
         <v>3.6666666666666665</v>
       </c>
+      <c r="L510" t="n">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -17979,6 +19512,9 @@
       <c r="K511" t="n">
         <v>0.0</v>
       </c>
+      <c r="L511" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -18014,6 +19550,9 @@
       <c r="K512" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L512" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -18049,6 +19588,9 @@
       <c r="K513" t="n">
         <v>0.0</v>
       </c>
+      <c r="L513" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -18084,6 +19626,9 @@
       <c r="K514" t="n">
         <v>0.0</v>
       </c>
+      <c r="L514" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -18119,6 +19664,9 @@
       <c r="K515" t="n">
         <v>0.0</v>
       </c>
+      <c r="L515" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -18154,6 +19702,9 @@
       <c r="K516" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L516" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -18189,6 +19740,9 @@
       <c r="K517" t="n">
         <v>0.0</v>
       </c>
+      <c r="L517" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -18224,6 +19778,9 @@
       <c r="K518" t="n">
         <v>2.0</v>
       </c>
+      <c r="L518" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -18259,6 +19816,9 @@
       <c r="K519" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L519" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -18294,6 +19854,9 @@
       <c r="K520" t="n">
         <v>0.0</v>
       </c>
+      <c r="L520" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -18329,6 +19892,9 @@
       <c r="K521" t="n">
         <v>3.0</v>
       </c>
+      <c r="L521" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -18364,6 +19930,9 @@
       <c r="K522" t="n">
         <v>0.0</v>
       </c>
+      <c r="L522" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -18399,6 +19968,9 @@
       <c r="K523" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L523" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -18434,6 +20006,9 @@
       <c r="K524" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L524" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -18469,6 +20044,9 @@
       <c r="K525" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L525" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -18504,6 +20082,9 @@
       <c r="K526" t="n">
         <v>0.0</v>
       </c>
+      <c r="L526" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -18539,6 +20120,9 @@
       <c r="K527" t="n">
         <v>1.0</v>
       </c>
+      <c r="L527" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -18574,6 +20158,9 @@
       <c r="K528" t="n">
         <v>0.0</v>
       </c>
+      <c r="L528" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -18609,6 +20196,9 @@
       <c r="K529" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L529" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -18644,6 +20234,9 @@
       <c r="K530" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L530" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -18679,6 +20272,9 @@
       <c r="K531" t="n">
         <v>2.0</v>
       </c>
+      <c r="L531" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -18714,6 +20310,9 @@
       <c r="K532" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L532" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -18749,6 +20348,9 @@
       <c r="K533" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L533" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -18784,6 +20386,9 @@
       <c r="K534" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L534" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -18819,6 +20424,9 @@
       <c r="K535" t="n">
         <v>1.0</v>
       </c>
+      <c r="L535" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -18854,6 +20462,9 @@
       <c r="K536" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L536" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -18889,6 +20500,9 @@
       <c r="K537" t="n">
         <v>0.0</v>
       </c>
+      <c r="L537" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -18924,6 +20538,9 @@
       <c r="K538" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L538" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -18959,6 +20576,9 @@
       <c r="K539" t="n">
         <v>3.6666666666666665</v>
       </c>
+      <c r="L539" t="n">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -18994,6 +20614,9 @@
       <c r="K540" t="n">
         <v>0.0</v>
       </c>
+      <c r="L540" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -19029,6 +20652,9 @@
       <c r="K541" t="n">
         <v>0.0</v>
       </c>
+      <c r="L541" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -19064,6 +20690,9 @@
       <c r="K542" t="n">
         <v>0.0</v>
       </c>
+      <c r="L542" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -19099,6 +20728,9 @@
       <c r="K543" t="n">
         <v>0.0</v>
       </c>
+      <c r="L543" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -19134,6 +20766,9 @@
       <c r="K544" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L544" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -19169,6 +20804,9 @@
       <c r="K545" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L545" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -19204,6 +20842,9 @@
       <c r="K546" t="n">
         <v>5.0</v>
       </c>
+      <c r="L546" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -19239,6 +20880,9 @@
       <c r="K547" t="n">
         <v>0.0</v>
       </c>
+      <c r="L547" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -19274,6 +20918,9 @@
       <c r="K548" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L548" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -19309,6 +20956,9 @@
       <c r="K549" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L549" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -19344,6 +20994,9 @@
       <c r="K550" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L550" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -19379,6 +21032,9 @@
       <c r="K551" t="n">
         <v>0.0</v>
       </c>
+      <c r="L551" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -19414,6 +21070,9 @@
       <c r="K552" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="L552" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -19449,6 +21108,9 @@
       <c r="K553" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L553" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -19484,6 +21146,9 @@
       <c r="K554" t="n">
         <v>3.0</v>
       </c>
+      <c r="L554" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -19519,6 +21184,9 @@
       <c r="K555" t="n">
         <v>0.0</v>
       </c>
+      <c r="L555" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -19554,6 +21222,9 @@
       <c r="K556" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L556" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -19589,6 +21260,9 @@
       <c r="K557" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L557" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -19624,6 +21298,9 @@
       <c r="K558" t="n">
         <v>0.0</v>
       </c>
+      <c r="L558" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -19659,6 +21336,9 @@
       <c r="K559" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L559" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -19694,6 +21374,9 @@
       <c r="K560" t="n">
         <v>7.333333333333333</v>
       </c>
+      <c r="L560" t="n">
+        <v>7.333333333333333</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -19729,6 +21412,9 @@
       <c r="K561" t="n">
         <v>0.0</v>
       </c>
+      <c r="L561" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -19764,6 +21450,9 @@
       <c r="K562" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L562" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -19799,6 +21488,9 @@
       <c r="K563" t="n">
         <v>0.0</v>
       </c>
+      <c r="L563" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -19834,6 +21526,9 @@
       <c r="K564" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L564" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -19869,6 +21564,9 @@
       <c r="K565" t="n">
         <v>0.0</v>
       </c>
+      <c r="L565" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -19904,6 +21602,9 @@
       <c r="K566" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L566" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -19939,6 +21640,9 @@
       <c r="K567" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="L567" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -19974,6 +21678,9 @@
       <c r="K568" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L568" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -20009,6 +21716,9 @@
       <c r="K569" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L569" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -20044,6 +21754,9 @@
       <c r="K570" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L570" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -20079,6 +21792,9 @@
       <c r="K571" t="n">
         <v>2.0</v>
       </c>
+      <c r="L571" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -20114,6 +21830,9 @@
       <c r="K572" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L572" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -20149,6 +21868,9 @@
       <c r="K573" t="n">
         <v>0.0</v>
       </c>
+      <c r="L573" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -20184,6 +21906,9 @@
       <c r="K574" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L574" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -20219,6 +21944,9 @@
       <c r="K575" t="n">
         <v>1.0</v>
       </c>
+      <c r="L575" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -20254,6 +21982,9 @@
       <c r="K576" t="n">
         <v>1.0</v>
       </c>
+      <c r="L576" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -20289,6 +22020,9 @@
       <c r="K577" t="n">
         <v>4.0</v>
       </c>
+      <c r="L577" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -20324,6 +22058,9 @@
       <c r="K578" t="n">
         <v>5.0</v>
       </c>
+      <c r="L578" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -20359,6 +22096,9 @@
       <c r="K579" t="n">
         <v>0.0</v>
       </c>
+      <c r="L579" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -20394,6 +22134,9 @@
       <c r="K580" t="n">
         <v>0.0</v>
       </c>
+      <c r="L580" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -20429,6 +22172,9 @@
       <c r="K581" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L581" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -20464,6 +22210,9 @@
       <c r="K582" t="n">
         <v>2.6666666666666665</v>
       </c>
+      <c r="L582" t="n">
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -20499,6 +22248,9 @@
       <c r="K583" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="L583" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -20534,6 +22286,9 @@
       <c r="K584" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L584" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -20569,6 +22324,9 @@
       <c r="K585" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="L585" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -20604,6 +22362,9 @@
       <c r="K586" t="n">
         <v>3.0</v>
       </c>
+      <c r="L586" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -20639,6 +22400,9 @@
       <c r="K587" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L587" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -20674,6 +22438,9 @@
       <c r="K588" t="n">
         <v>2.0</v>
       </c>
+      <c r="L588" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -20709,6 +22476,9 @@
       <c r="K589" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L589" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -20744,6 +22514,9 @@
       <c r="K590" t="n">
         <v>0.0</v>
       </c>
+      <c r="L590" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -20779,6 +22552,9 @@
       <c r="K591" t="n">
         <v>1.0</v>
       </c>
+      <c r="L591" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -20814,6 +22590,9 @@
       <c r="K592" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L592" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -20849,6 +22628,9 @@
       <c r="K593" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L593" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -20884,6 +22666,9 @@
       <c r="K594" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L594" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -20919,6 +22704,9 @@
       <c r="K595" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L595" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -20954,6 +22742,9 @@
       <c r="K596" t="n">
         <v>1.3333333333333333</v>
       </c>
+      <c r="L596" t="n">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -20989,6 +22780,9 @@
       <c r="K597" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L597" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -21024,6 +22818,9 @@
       <c r="K598" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L598" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -21059,6 +22856,9 @@
       <c r="K599" t="n">
         <v>2.3333333333333335</v>
       </c>
+      <c r="L599" t="n">
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -21094,6 +22894,9 @@
       <c r="K600" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L600" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -21129,6 +22932,9 @@
       <c r="K601" t="n">
         <v>0.0</v>
       </c>
+      <c r="L601" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -21164,6 +22970,9 @@
       <c r="K602" t="n">
         <v>3.0</v>
       </c>
+      <c r="L602" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -21199,6 +23008,9 @@
       <c r="K603" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L603" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -21234,6 +23046,9 @@
       <c r="K604" t="n">
         <v>1.6666666666666667</v>
       </c>
+      <c r="L604" t="n">
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -21269,6 +23084,9 @@
       <c r="K605" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L605" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -21304,6 +23122,9 @@
       <c r="K606" t="n">
         <v>0.0</v>
       </c>
+      <c r="L606" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -21339,6 +23160,9 @@
       <c r="K607" t="n">
         <v>1.0</v>
       </c>
+      <c r="L607" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -21374,6 +23198,9 @@
       <c r="K608" t="n">
         <v>1.0</v>
       </c>
+      <c r="L608" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -21409,6 +23236,9 @@
       <c r="K609" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L609" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -21444,6 +23274,9 @@
       <c r="K610" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L610" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -21479,6 +23312,9 @@
       <c r="K611" t="n">
         <v>3.6666666666666665</v>
       </c>
+      <c r="L611" t="n">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -21514,6 +23350,9 @@
       <c r="K612" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="L612" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -21549,6 +23388,9 @@
       <c r="K613" t="n">
         <v>0.0</v>
       </c>
+      <c r="L613" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -21584,6 +23426,9 @@
       <c r="K614" t="n">
         <v>0.0</v>
       </c>
+      <c r="L614" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -21619,6 +23464,9 @@
       <c r="K615" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L615" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -21654,6 +23502,9 @@
       <c r="K616" t="n">
         <v>3.3333333333333335</v>
       </c>
+      <c r="L616" t="n">
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -21689,6 +23540,9 @@
       <c r="K617" t="n">
         <v>1.0</v>
       </c>
+      <c r="L617" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -21724,6 +23578,9 @@
       <c r="K618" t="n">
         <v>2.0</v>
       </c>
+      <c r="L618" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -21759,6 +23616,9 @@
       <c r="K619" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L619" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -21794,6 +23654,9 @@
       <c r="K620" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L620" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -21829,6 +23692,9 @@
       <c r="K621" t="n">
         <v>3.6666666666666665</v>
       </c>
+      <c r="L621" t="n">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -21864,6 +23730,9 @@
       <c r="K622" t="n">
         <v>0.0</v>
       </c>
+      <c r="L622" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -21899,6 +23768,9 @@
       <c r="K623" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L623" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -21934,6 +23806,9 @@
       <c r="K624" t="n">
         <v>-10000.0</v>
       </c>
+      <c r="L624" t="n">
+        <v>-10000.0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -21969,6 +23844,9 @@
       <c r="K625" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="L625" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -22002,6 +23880,9 @@
         <v>0.0</v>
       </c>
       <c r="K626" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L626" t="n">
         <v>0.0</v>
       </c>
     </row>
